--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="449">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -232,7 +232,16 @@
     <t xml:space="preserve">D201</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">CDSU4148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comchip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard 75V 150mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes_SMD:SOD-523</t>
   </si>
   <si>
     <t xml:space="preserve">D202</t>
@@ -244,18 +253,6 @@
     <t xml:space="preserve">D401</t>
   </si>
   <si>
-    <t xml:space="preserve">CDSU4148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comchip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard 75V 150mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes_SMD:SOD-523</t>
-  </si>
-  <si>
     <t xml:space="preserve">D402</t>
   </si>
   <si>
@@ -295,7 +292,7 @@
     <t xml:space="preserve">3.3V</t>
   </si>
   <si>
-    <t xml:space="preserve">ON</t>
+    <t xml:space="preserve">ON Semi</t>
   </si>
   <si>
     <t xml:space="preserve">MM3Z3V3T1G</t>
@@ -352,33 +349,42 @@
     <t xml:space="preserve">RJ45</t>
   </si>
   <si>
-    <t xml:space="preserve">Connect:RJ45_8</t>
+    <t xml:space="preserve">Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS-7188S-A-NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right angle, Shielded Cat5e</t>
   </si>
   <si>
     <t xml:space="preserve">JP301</t>
   </si>
   <si>
+    <t xml:space="preserve">Pin Head 1x2</t>
+  </si>
+  <si>
     <t xml:space="preserve">WR_ENABLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin Header, 1x2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02</t>
   </si>
   <si>
     <t xml:space="preserve">JP401</t>
   </si>
   <si>
+    <t xml:space="preserve">Banana Jack 1x2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shorting Bar</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana Jack, 1x2</t>
-  </si>
-  <si>
     <t xml:space="preserve">JP601</t>
   </si>
   <si>
+    <t xml:space="preserve">Pin Head 1x3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trigger Level</t>
   </si>
   <si>
@@ -418,15 +424,18 @@
     <t xml:space="preserve">M401</t>
   </si>
   <si>
+    <t xml:space="preserve">10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE</t>
+  </si>
+  <si>
     <t xml:space="preserve">W28-XQ1A-10</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF-BOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE</t>
-  </si>
-  <si>
     <t xml:space="preserve">10A 250VAC 32VDC</t>
   </si>
   <si>
@@ -484,9 +493,6 @@
     <t xml:space="preserve">P204</t>
   </si>
   <si>
-    <t xml:space="preserve">PIN_HEAD_1x2</t>
-  </si>
-  <si>
     <t xml:space="preserve">P205</t>
   </si>
   <si>
@@ -706,6 +712,9 @@
     <t xml:space="preserve">Fairchild</t>
   </si>
   <si>
+    <t xml:space="preserve">MOSFET N-CH 50V 220MA</t>
+  </si>
+  <si>
     <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23</t>
   </si>
   <si>
@@ -721,6 +730,9 @@
     <t xml:space="preserve">NXP</t>
   </si>
   <si>
+    <t xml:space="preserve">MOSFET N-CH 30V</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q402</t>
   </si>
   <si>
@@ -751,9 +763,6 @@
     <t xml:space="preserve">PMV45EN2R</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSFET N-CH 30V</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q501</t>
   </si>
   <si>
@@ -1126,7 +1135,22 @@
     <t xml:space="preserve">SW501</t>
   </si>
   <si>
-    <t xml:space="preserve">SP3T</t>
+    <t xml:space="preserve">MOMENTARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVQ-Q2K03W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactile SPST-NO Top Actuated SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/Panasonic-EVQQ2-6mm_Square_Thin_SMD_Touch_Switches.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons_Switches_SMD:SW_SPST_EVQQ2</t>
   </si>
   <si>
     <t xml:space="preserve">SW502</t>
@@ -1352,7 +1376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1390,8 +1414,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,6 +1432,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1446,7 +1482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1467,11 +1503,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1484,6 +1524,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF9999"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1495,20 +1595,20 @@
   <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
+      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0202429149798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2955465587045"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2353,7 +2453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2367,24 +2467,24 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
@@ -2396,24 +2496,24 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
@@ -2425,56 +2525,56 @@
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -2483,54 +2583,54 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -2539,98 +2639,98 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -2641,25 +2741,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>16</v>
@@ -2670,74 +2770,74 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="B43" s="0" t="s">
+        <v>113</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -2752,21 +2852,21 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B44" s="0" t="s">
+        <v>117</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -2784,18 +2884,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -2810,22 +2910,22 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
@@ -2839,50 +2939,50 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="2" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
@@ -2897,62 +2997,62 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="I49" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>129</v>
+      <c r="H50" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>16</v>
@@ -2960,25 +3060,25 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>16</v>
@@ -2989,25 +3089,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>16</v>
@@ -3018,25 +3118,25 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>16</v>
@@ -3047,25 +3147,25 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>16</v>
@@ -3076,25 +3176,25 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
@@ -3105,10 +3205,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -3117,10 +3217,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>12</v>
@@ -3129,15 +3229,15 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -3146,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>12</v>
@@ -3163,10 +3263,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -3175,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>12</v>
@@ -3190,99 +3290,99 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>114</v>
+      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -3303,114 +3403,114 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>12</v>
@@ -3419,21 +3519,21 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
@@ -3453,16 +3553,16 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
@@ -3477,15 +3577,15 @@
         <v>16</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -3494,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>12</v>
@@ -3506,15 +3606,15 @@
         <v>16</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -3535,21 +3635,21 @@
         <v>16</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
@@ -3564,21 +3664,21 @@
         <v>16</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
@@ -3593,21 +3693,21 @@
         <v>16</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
@@ -3627,10 +3727,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -3656,10 +3756,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -3668,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>12</v>
@@ -3685,10 +3785,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -3697,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>12</v>
@@ -3714,10 +3814,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -3726,10 +3826,10 @@
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>12</v>
@@ -3738,15 +3838,15 @@
         <v>16</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -3755,10 +3855,10 @@
         <v>12</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>12</v>
@@ -3772,10 +3872,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -3784,10 +3884,10 @@
         <v>12</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>12</v>
@@ -3796,27 +3896,27 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>12</v>
@@ -3830,225 +3930,225 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>12</v>
@@ -4062,10 +4162,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -4074,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>12</v>
@@ -4091,10 +4191,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -4103,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>12</v>
@@ -4120,10 +4220,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -4132,10 +4232,10 @@
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
@@ -4144,15 +4244,15 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -4161,10 +4261,10 @@
         <v>12</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
@@ -4176,227 +4276,227 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>12</v>
@@ -4408,12 +4508,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -4422,85 +4522,85 @@
         <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -4509,520 +4609,520 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="G106" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="G110" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="H119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -5031,27 +5131,27 @@
         <v>12</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
@@ -5060,27 +5160,27 @@
         <v>12</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
@@ -5089,27 +5189,27 @@
         <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
@@ -5118,27 +5218,27 @@
         <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -5147,27 +5247,27 @@
         <v>12</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
@@ -5176,27 +5276,27 @@
         <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
@@ -5205,27 +5305,27 @@
         <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
@@ -5234,27 +5334,27 @@
         <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -5263,27 +5363,27 @@
         <v>12</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
@@ -5292,28 +5392,28 @@
         <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
@@ -5321,56 +5421,56 @@
         <v>12</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="G133" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -5379,27 +5479,27 @@
         <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
@@ -5408,27 +5508,27 @@
         <v>12</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
@@ -5437,27 +5537,27 @@
         <v>12</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
@@ -5466,27 +5566,27 @@
         <v>12</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
@@ -5495,27 +5595,27 @@
         <v>12</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -5524,27 +5624,27 @@
         <v>12</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
@@ -5553,24 +5653,24 @@
         <v>12</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>57</v>
@@ -5594,15 +5694,15 @@
         <v>16</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -5611,27 +5711,27 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
@@ -5640,27 +5740,27 @@
         <v>12</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
@@ -5669,27 +5769,27 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
@@ -5698,27 +5798,27 @@
         <v>12</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
@@ -5727,27 +5827,27 @@
         <v>12</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -5756,27 +5856,27 @@
         <v>12</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
@@ -5785,27 +5885,27 @@
         <v>12</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
@@ -5814,27 +5914,27 @@
         <v>12</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
@@ -5843,28 +5943,28 @@
         <v>12</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
@@ -5872,27 +5972,27 @@
         <v>12</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -5901,27 +6001,27 @@
         <v>12</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -5930,27 +6030,27 @@
         <v>12</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -5959,56 +6059,56 @@
         <v>12</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="G155" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -6017,27 +6117,27 @@
         <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -6046,27 +6146,27 @@
         <v>12</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
@@ -6075,27 +6175,27 @@
         <v>12</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -6104,27 +6204,27 @@
         <v>12</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -6133,27 +6233,27 @@
         <v>12</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -6162,27 +6262,27 @@
         <v>12</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -6191,27 +6291,27 @@
         <v>12</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -6220,27 +6320,27 @@
         <v>12</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -6249,27 +6349,27 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -6278,27 +6378,27 @@
         <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
@@ -6307,27 +6407,27 @@
         <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -6336,27 +6436,27 @@
         <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -6365,27 +6465,27 @@
         <v>12</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -6394,27 +6494,27 @@
         <v>12</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
@@ -6423,27 +6523,27 @@
         <v>12</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -6452,27 +6552,27 @@
         <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -6481,27 +6581,27 @@
         <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -6510,27 +6610,27 @@
         <v>12</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -6539,27 +6639,27 @@
         <v>12</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -6568,27 +6668,27 @@
         <v>12</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
@@ -6597,27 +6697,27 @@
         <v>12</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
@@ -6626,27 +6726,27 @@
         <v>12</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
@@ -6655,27 +6755,27 @@
         <v>12</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
@@ -6684,33 +6784,33 @@
         <v>12</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>12</v>
@@ -6730,16 +6830,16 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>12</v>
@@ -6757,244 +6857,244 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+      <c r="C182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+      <c r="E182" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="G182" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+      <c r="H182" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>16</v>
+      <c r="I182" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
@@ -7003,27 +7103,27 @@
         <v>12</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
@@ -7032,10 +7132,10 @@
         <v>12</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>12</v>
@@ -7044,15 +7144,15 @@
         <v>16</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
@@ -7061,27 +7161,27 @@
         <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F192" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
@@ -7090,27 +7190,27 @@
         <v>12</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F193" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
@@ -7119,27 +7219,27 @@
         <v>12</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
@@ -7148,27 +7248,27 @@
         <v>12</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
@@ -7177,56 +7277,56 @@
         <v>12</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="197" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>411</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
@@ -7235,10 +7335,10 @@
         <v>12</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>12</v>
@@ -7247,15 +7347,15 @@
         <v>16</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
@@ -7264,10 +7364,10 @@
         <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>12</v>
@@ -7276,15 +7376,15 @@
         <v>16</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
@@ -7293,10 +7393,10 @@
         <v>12</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>12</v>
@@ -7305,15 +7405,15 @@
         <v>16</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
@@ -7322,10 +7422,10 @@
         <v>12</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>12</v>
@@ -7334,15 +7434,15 @@
         <v>16</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
@@ -7351,10 +7451,10 @@
         <v>12</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>12</v>
@@ -7363,15 +7463,15 @@
         <v>16</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
@@ -7380,10 +7480,10 @@
         <v>12</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>12</v>
@@ -7392,16 +7492,16 @@
         <v>16</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
@@ -7409,10 +7509,10 @@
         <v>12</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>12</v>
@@ -7421,27 +7521,27 @@
         <v>16</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>12</v>
@@ -7450,44 +7550,44 @@
         <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
@@ -7508,15 +7608,15 @@
         <v>16</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
@@ -7537,15 +7637,15 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
@@ -7566,15 +7666,15 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
@@ -7595,15 +7695,15 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
@@ -7624,18 +7724,18 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -7653,163 +7753,163 @@
         <v>16</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C213" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>12</v>
@@ -7827,7 +7927,7 @@
         <v>16</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="459">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -466,10 +466,19 @@
     <t xml:space="preserve">MicroFit header</t>
   </si>
   <si>
+    <t xml:space="preserve">to cell protection</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molex</t>
   </si>
   <si>
-    <t xml:space="preserve">43045-0200</t>
+    <t xml:space="preserve">43045-0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pos vertical header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-43045-Micro_Fit_3_dual_row_vertical_through_hole_header.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x01_Straight_43045-0228</t>
@@ -481,13 +490,34 @@
     <t xml:space="preserve">XH header</t>
   </si>
   <si>
+    <t xml:space="preserve">to front panel</t>
+  </si>
+  <si>
     <t xml:space="preserve">JST</t>
   </si>
   <si>
+    <t xml:space="preserve">B2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/JST-XH-2.5mm_pitch_Disconnectable_Crimp_style_connectors.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_JST:JST_EH_B02B-XH-A_02x2.50mm_Straight</t>
+  </si>
+  <si>
     <t xml:space="preserve">P203</t>
   </si>
   <si>
-    <t xml:space="preserve">XH housing</t>
+    <t xml:space="preserve">XH connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XHP-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pos connector</t>
   </si>
   <si>
     <t xml:space="preserve">P204</t>
@@ -517,55 +547,52 @@
     <t xml:space="preserve">P303</t>
   </si>
   <si>
-    <t xml:space="preserve">JST PH header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Charge Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4B-PH-K-S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/JST-PH_connector.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_JST:JST_PH_B4B-PH-K_02x2.00mm_Straight</t>
+    <t xml:space="preserve">to charge controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 pos vertical header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_JST:JST_XH_B04B-XH-A_02x2.50mm_Straight</t>
   </si>
   <si>
     <t xml:space="preserve">P304</t>
   </si>
   <si>
-    <t xml:space="preserve">To Cell Protection</t>
-  </si>
-  <si>
     <t xml:space="preserve">P401</t>
   </si>
   <si>
-    <t xml:space="preserve">IGN BATT IN</t>
+    <t xml:space="preserve">to ignition batt</t>
   </si>
   <si>
     <t xml:space="preserve">P402</t>
   </si>
   <si>
+    <t xml:space="preserve">MicroFit connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P403</t>
+  </si>
+  <si>
     <t xml:space="preserve">43025-0200</t>
   </si>
   <si>
-    <t xml:space="preserve">MicroFit3 1x2 recept.</t>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-Micro_Fit_3_Family.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">P403</t>
   </si>
   <si>
-    <t xml:space="preserve">MicroFit3 1x2 header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x01_Angled_43045-020x</t>
-  </si>
-  <si>
     <t xml:space="preserve">P404</t>
   </si>
   <si>
-    <t xml:space="preserve">Molex Micro-Fit header</t>
+    <t xml:space="preserve">43045-1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 pos vertical header</t>
   </si>
   <si>
     <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x05_Straight_43045-1028</t>
@@ -574,63 +601,69 @@
     <t xml:space="preserve">P405</t>
   </si>
   <si>
-    <t xml:space="preserve">S4B-PH-K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_JST:JST_PH_S4B-PH-K_04x2.00mm_Angled</t>
-  </si>
-  <si>
     <t xml:space="preserve">P406</t>
   </si>
   <si>
     <t xml:space="preserve">P407</t>
   </si>
   <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P406</t>
+  </si>
+  <si>
     <t xml:space="preserve">P408</t>
   </si>
   <si>
     <t xml:space="preserve">CONN_01x02</t>
   </si>
   <si>
-    <t xml:space="preserve">To Away Box</t>
+    <t xml:space="preserve">OFF-BOARD; to away box</t>
   </si>
   <si>
     <t xml:space="preserve">P409</t>
   </si>
   <si>
-    <t xml:space="preserve">PHR-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P502</t>
+    <t xml:space="preserve">OFF-BOARD; mates to P405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XHP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 pos connector</t>
   </si>
   <si>
     <t xml:space="preserve">P503</t>
   </si>
   <si>
-    <t xml:space="preserve">43045-0800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x04_Angled_43045-080x</t>
+    <t xml:space="preserve">43045-0828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 pos vertical header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x04_Straight_43045-0828</t>
   </si>
   <si>
     <t xml:space="preserve">P504</t>
   </si>
   <si>
-    <t xml:space="preserve">MicroFit recept.</t>
+    <t xml:space="preserve">OFF-BOARD; mates to P503</t>
   </si>
   <si>
     <t xml:space="preserve">43025-0800</t>
   </si>
   <si>
+    <t xml:space="preserve">8 pos connector</t>
+  </si>
+  <si>
     <t xml:space="preserve">P505</t>
   </si>
   <si>
     <t xml:space="preserve">P506</t>
   </si>
   <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P505</t>
+  </si>
+  <si>
     <t xml:space="preserve">P507</t>
   </si>
   <si>
@@ -667,16 +700,13 @@
     <t xml:space="preserve">P514</t>
   </si>
   <si>
-    <t xml:space="preserve">P601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P602</t>
-  </si>
-  <si>
     <t xml:space="preserve">P605</t>
   </si>
   <si>
     <t xml:space="preserve">P606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P605</t>
   </si>
   <si>
     <t xml:space="preserve">P607</t>
@@ -1376,7 +1406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1413,12 +1443,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1503,11 +1527,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,24 +1616,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0202429149798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2955465587045"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +1839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1844,7 +1868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +1955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1960,7 +1984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1989,7 +2013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2076,7 +2100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2105,7 +2129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2134,7 +2158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2163,7 +2187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2221,7 +2245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2279,7 +2303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -2308,7 +2332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2366,7 +2390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -2424,7 +2448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -2453,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -2511,7 +2535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2569,7 +2593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -2598,7 +2622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -2625,7 +2649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -2654,7 +2678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2681,7 +2705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2710,7 +2734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -2768,7 +2792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
@@ -2797,7 +2821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
@@ -2826,11 +2850,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2839,10 +2863,10 @@
       <c r="D43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2855,11 +2879,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2884,11 +2908,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2897,10 +2921,10 @@
       <c r="D45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2913,11 +2937,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2926,10 +2950,10 @@
       <c r="D46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2942,11 +2966,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2955,10 +2979,10 @@
       <c r="D47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2971,11 +2995,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2984,10 +3008,10 @@
       <c r="D48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3000,7 +3024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3029,7 +3053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>132</v>
       </c>
@@ -3058,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>133</v>
       </c>
@@ -3087,7 +3111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
@@ -3116,7 +3140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -3145,7 +3169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>145</v>
       </c>
@@ -3203,691 +3227,691 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+    <row r="56" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="E56" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="F56" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="G56" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="I56" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="57" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="67" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="E68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="F70" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="I70" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="F75" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="F76" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>12</v>
@@ -3896,27 +3920,27 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>12</v>
@@ -3928,12 +3952,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -3942,10 +3966,10 @@
         <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>12</v>
@@ -3957,12 +3981,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -3971,10 +3995,10 @@
         <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>12</v>
@@ -3986,12 +4010,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -4000,10 +4024,10 @@
         <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>12</v>
@@ -4015,12 +4039,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -4029,10 +4053,10 @@
         <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>12</v>
@@ -4044,12 +4068,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -4058,10 +4082,10 @@
         <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>12</v>
@@ -4073,12 +4097,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -4087,156 +4111,156 @@
         <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="H87" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="E89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
       </c>
@@ -4244,27 +4268,27 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
@@ -4276,12 +4300,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -4290,10 +4314,10 @@
         <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>12</v>
@@ -4305,12 +4329,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -4319,10 +4343,10 @@
         <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>12</v>
@@ -4334,12 +4358,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -4348,10 +4372,10 @@
         <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
@@ -4363,12 +4387,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -4377,10 +4401,10 @@
         <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
@@ -4392,128 +4416,128 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -4522,27 +4546,27 @@
         <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
@@ -4551,27 +4575,27 @@
         <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -4580,27 +4604,27 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -4609,27 +4633,27 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G104" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="105" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -4638,28 +4662,28 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
@@ -4667,56 +4691,56 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F107" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -4725,27 +4749,27 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -4754,27 +4778,27 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -4783,27 +4807,27 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -4812,317 +4836,317 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="H121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="122" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -5130,28 +5154,28 @@
       <c r="D122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>266</v>
+      <c r="E122" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
@@ -5159,28 +5183,28 @@
       <c r="D123" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>266</v>
+      <c r="E123" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
@@ -5188,28 +5212,28 @@
       <c r="D124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>266</v>
+      <c r="E124" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
@@ -5218,27 +5242,27 @@
         <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -5247,27 +5271,27 @@
         <v>12</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
@@ -5276,27 +5300,27 @@
         <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
@@ -5305,27 +5329,27 @@
         <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
@@ -5334,27 +5358,27 @@
         <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -5363,24 +5387,24 @@
         <v>12</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>294</v>
@@ -5392,288 +5416,288 @@
         <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B133" s="2" t="s">
+      <c r="G134" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+      <c r="G139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>266</v>
+      <c r="G140" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -5681,28 +5705,28 @@
       <c r="D141" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>12</v>
+      <c r="E141" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -5711,24 +5735,24 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>294</v>
@@ -5740,27 +5764,27 @@
         <v>12</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>295</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
@@ -5769,868 +5793,868 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="146" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B153" s="2" t="s">
+      <c r="G172" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F153" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="G173" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -6639,27 +6663,27 @@
         <v>12</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -6668,433 +6692,433 @@
         <v>12</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="181" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="182" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="185" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H188" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="188" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="189" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
@@ -7103,27 +7127,27 @@
         <v>12</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>386</v>
+        <v>90</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="191" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
@@ -7132,85 +7156,85 @@
         <v>12</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="192" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
@@ -7219,27 +7243,27 @@
         <v>12</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>403</v>
+        <v>12</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
@@ -7248,27 +7272,27 @@
         <v>12</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
@@ -7277,56 +7301,56 @@
         <v>12</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="197" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I197" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
@@ -7335,10 +7359,10 @@
         <v>12</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>12</v>
@@ -7347,15 +7371,15 @@
         <v>16</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
@@ -7364,10 +7388,10 @@
         <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>12</v>
@@ -7376,15 +7400,15 @@
         <v>16</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
@@ -7393,10 +7417,10 @@
         <v>12</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>12</v>
@@ -7405,15 +7429,15 @@
         <v>16</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
@@ -7422,10 +7446,10 @@
         <v>12</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>12</v>
@@ -7434,15 +7458,15 @@
         <v>16</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
@@ -7451,10 +7475,10 @@
         <v>12</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>12</v>
@@ -7463,15 +7487,15 @@
         <v>16</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
@@ -7480,10 +7504,10 @@
         <v>12</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>12</v>
@@ -7492,15 +7516,15 @@
         <v>16</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
@@ -7509,10 +7533,10 @@
         <v>12</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>12</v>
@@ -7521,15 +7545,15 @@
         <v>16</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
@@ -7538,10 +7562,10 @@
         <v>12</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>12</v>
@@ -7550,15 +7574,15 @@
         <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
@@ -7567,10 +7591,10 @@
         <v>12</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>12</v>
@@ -7579,15 +7603,15 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
@@ -7608,18 +7632,18 @@
         <v>16</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>12</v>
@@ -7637,18 +7661,18 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>12</v>
@@ -7666,18 +7690,18 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>12</v>
@@ -7695,18 +7719,18 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>12</v>
@@ -7724,18 +7748,18 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -7753,18 +7777,18 @@
         <v>16</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>12</v>
@@ -7782,18 +7806,18 @@
         <v>16</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="C214" s="2" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>12</v>
@@ -7811,125 +7835,13 @@
         <v>16</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="215" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="216" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="217" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="218" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="458">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -1297,19 +1297,16 @@
     <t xml:space="preserve">U403</t>
   </si>
   <si>
-    <t xml:space="preserve">74V1G08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBSOLETE PART!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STMicro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74V1G08CTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC3:SOT323-5L</t>
+    <t xml:space="preserve">SN74AHC1G08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74AHC1G08DCKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 input AND gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_SOT_Packages_SMD:SC-70-5</t>
   </si>
   <si>
     <t xml:space="preserve">U404</t>
@@ -1454,14 +1451,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1506,7 +1503,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1527,15 +1524,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1618,22 +1611,22 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B193" activeCellId="0" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,7 +2354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2390,7 +2383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2419,7 +2412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -2448,7 +2441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2506,7 +2499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -2535,7 +2528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -2564,7 +2557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2593,7 +2586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -2622,7 +2615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -2649,7 +2642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -2678,7 +2671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2705,7 +2698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2734,7 +2727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -2763,7 +2756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
@@ -2821,7 +2814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
@@ -2850,7 +2843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
@@ -2863,10 +2856,10 @@
       <c r="D43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2879,7 +2872,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -2908,7 +2901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
@@ -2921,10 +2914,10 @@
       <c r="D45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2937,7 +2930,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>123</v>
       </c>
@@ -2950,10 +2943,10 @@
       <c r="D46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2966,7 +2959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -2979,10 +2972,10 @@
       <c r="D47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2995,7 +2988,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>125</v>
       </c>
@@ -3008,10 +3001,10 @@
       <c r="D48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3024,7 +3017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3053,7 +3046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>132</v>
       </c>
@@ -3082,7 +3075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>133</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
@@ -3140,7 +3133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -3169,7 +3162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -3198,7 +3191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>145</v>
       </c>
@@ -3227,670 +3220,670 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
+    <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+    <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="6" t="s">
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
+    <row r="60" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
+    <row r="61" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="6" t="s">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="5" t="s">
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="5" t="s">
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
+      <c r="I67" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
+      <c r="I74" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
+      <c r="I76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4126,61 +4119,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
+    <row r="87" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="88" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
+    <row r="88" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5112,7 +5105,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>296</v>
       </c>
@@ -5141,7 +5134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>297</v>
       </c>
@@ -5170,7 +5163,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -5199,7 +5192,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>301</v>
       </c>
@@ -5228,7 +5221,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>302</v>
       </c>
@@ -5257,7 +5250,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>303</v>
       </c>
@@ -5286,7 +5279,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>306</v>
       </c>
@@ -5315,7 +5308,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>307</v>
       </c>
@@ -5344,7 +5337,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>308</v>
       </c>
@@ -5373,7 +5366,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>309</v>
       </c>
@@ -5402,7 +5395,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>312</v>
       </c>
@@ -5431,7 +5424,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>313</v>
       </c>
@@ -5460,7 +5453,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>316</v>
       </c>
@@ -5489,7 +5482,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>319</v>
       </c>
@@ -5518,7 +5511,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>320</v>
       </c>
@@ -5547,7 +5540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>323</v>
       </c>
@@ -5576,7 +5569,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>326</v>
       </c>
@@ -5605,7 +5598,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>327</v>
       </c>
@@ -5634,7 +5627,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>328</v>
       </c>
@@ -5663,7 +5656,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>329</v>
       </c>
@@ -5692,7 +5685,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>330</v>
       </c>
@@ -5721,7 +5714,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>333</v>
       </c>
@@ -5750,7 +5743,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>336</v>
       </c>
@@ -5779,7 +5772,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>337</v>
       </c>
@@ -5808,7 +5801,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>338</v>
       </c>
@@ -5837,7 +5830,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>341</v>
       </c>
@@ -5866,7 +5859,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>342</v>
       </c>
@@ -5895,7 +5888,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>343</v>
       </c>
@@ -5924,7 +5917,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>346</v>
       </c>
@@ -5953,7 +5946,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>347</v>
       </c>
@@ -5982,7 +5975,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>348</v>
       </c>
@@ -6011,7 +6004,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>349</v>
       </c>
@@ -6040,7 +6033,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>352</v>
       </c>
@@ -6069,7 +6062,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>353</v>
       </c>
@@ -6098,7 +6091,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>356</v>
       </c>
@@ -6127,7 +6120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>357</v>
       </c>
@@ -6156,7 +6149,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>358</v>
       </c>
@@ -6185,7 +6178,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>359</v>
       </c>
@@ -6214,7 +6207,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>360</v>
       </c>
@@ -6243,7 +6236,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>361</v>
       </c>
@@ -6272,7 +6265,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>362</v>
       </c>
@@ -6301,7 +6294,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>363</v>
       </c>
@@ -6330,7 +6323,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>364</v>
       </c>
@@ -6359,7 +6352,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>365</v>
       </c>
@@ -6388,7 +6381,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>366</v>
       </c>
@@ -6417,7 +6410,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>367</v>
       </c>
@@ -6446,7 +6439,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>368</v>
       </c>
@@ -6475,7 +6468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
         <v>369</v>
       </c>
@@ -6504,7 +6497,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
         <v>370</v>
       </c>
@@ -6533,7 +6526,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>371</v>
       </c>
@@ -6562,7 +6555,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
         <v>372</v>
       </c>
@@ -6591,7 +6584,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>373</v>
       </c>
@@ -6620,7 +6613,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>374</v>
       </c>
@@ -6649,7 +6642,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>375</v>
       </c>
@@ -6678,7 +6671,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>376</v>
       </c>
@@ -6707,7 +6700,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>377</v>
       </c>
@@ -6736,7 +6729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>379</v>
       </c>
@@ -6765,7 +6758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
         <v>380</v>
       </c>
@@ -6794,7 +6787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
         <v>387</v>
       </c>
@@ -6823,7 +6816,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
         <v>388</v>
       </c>
@@ -6852,7 +6845,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
         <v>389</v>
       </c>
@@ -6881,7 +6874,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
         <v>390</v>
       </c>
@@ -6910,7 +6903,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
         <v>391</v>
       </c>
@@ -6939,7 +6932,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
         <v>392</v>
       </c>
@@ -6968,7 +6961,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
         <v>393</v>
       </c>
@@ -6997,7 +6990,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>394</v>
       </c>
@@ -7026,7 +7019,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
         <v>400</v>
       </c>
@@ -7055,7 +7048,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>405</v>
       </c>
@@ -7084,7 +7077,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>409</v>
       </c>
@@ -7113,7 +7106,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>410</v>
       </c>
@@ -7142,7 +7135,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>415</v>
       </c>
@@ -7171,7 +7164,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>420</v>
       </c>
@@ -7200,642 +7193,642 @@
         <v>252</v>
       </c>
     </row>
-    <row r="193" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7" t="s">
+    <row r="193" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="7" t="s">
+      <c r="C193" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="G193" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="H193" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="F196" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="2" t="s">
+      <c r="F198" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" s="2" t="s">
+      <c r="F199" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="2" t="s">
+      <c r="F200" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I200" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="2" t="s">
+      <c r="F201" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="2" t="s">
+      <c r="F202" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I205" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="D208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="D209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I209" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I210" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="D214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="462">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -358,6 +358,9 @@
     <t xml:space="preserve">Right angle, Shielded Cat5e</t>
   </si>
   <si>
+    <t xml:space="preserve">LTC3:RJ45_8_SHIELDED</t>
+  </si>
+  <si>
     <t xml:space="preserve">JP301</t>
   </si>
   <si>
@@ -406,6 +409,9 @@
     <t xml:space="preserve">RELAY_1C</t>
   </si>
   <si>
+    <t xml:space="preserve">ign batt relay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omron</t>
   </si>
   <si>
@@ -418,7 +424,13 @@
     <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/Omron-G5LE-Single_Pole_10A_Power_Relay.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">LTC3:G5LE-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">K402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ign relay</t>
   </si>
   <si>
     <t xml:space="preserve">M401</t>
@@ -1442,18 +1454,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1503,7 +1509,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1524,14 +1530,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1541,66 +1539,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF9999"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1611,22 +1549,21 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B193" activeCellId="0" sqref="B193"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +1798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1890,7 +1827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1919,7 +1856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1948,7 +1885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2006,7 +1943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2035,7 +1972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2064,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2122,7 +2059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2151,7 +2088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2180,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2209,7 +2146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2238,7 +2175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -2267,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2296,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -2325,7 +2262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -2839,27 +2776,27 @@
       <c r="H42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>16</v>
+      <c r="I42" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2869,21 +2806,21 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -2903,21 +2840,21 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2927,55 +2864,55 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2985,26 +2922,26 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3014,88 +2951,88 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>16</v>
+        <v>133</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>16</v>
+        <v>133</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>16</v>
@@ -3106,25 +3043,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>16</v>
@@ -3135,25 +3072,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>16</v>
@@ -3164,25 +3101,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>16</v>
@@ -3193,25 +3130,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
@@ -3222,97 +3159,97 @@
     </row>
     <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="F58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -3320,10 +3257,10 @@
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -3333,15 +3270,15 @@
         <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -3349,10 +3286,10 @@
       <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -3362,15 +3299,15 @@
         <v>16</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -3378,10 +3315,10 @@
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -3391,15 +3328,15 @@
         <v>16</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -3407,10 +3344,10 @@
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -3420,15 +3357,15 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -3436,10 +3373,10 @@
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -3449,120 +3386,120 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>16</v>
@@ -3570,144 +3507,144 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I71" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -3715,27 +3652,27 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -3744,28 +3681,28 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>16</v>
@@ -3773,57 +3710,57 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I75" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>16</v>
@@ -3831,57 +3768,57 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I77" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>16</v>
@@ -3889,486 +3826,486 @@
     </row>
     <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="H88" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
@@ -4380,24 +4317,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
@@ -4409,12 +4346,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -4423,28 +4360,28 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
@@ -4452,27 +4389,27 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -4481,578 +4418,578 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="H103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="H104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="H105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="2" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="2" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="2" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="2" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="113" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="H114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="115" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="D116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="H118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="118" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="119" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -5061,27 +4998,27 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="120" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
@@ -5090,27 +5027,27 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -5119,27 +5056,27 @@
         <v>12</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -5148,27 +5085,27 @@
         <v>12</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
@@ -5177,27 +5114,27 @@
         <v>12</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
@@ -5206,27 +5143,27 @@
         <v>12</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
@@ -5235,27 +5172,27 @@
         <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -5264,27 +5201,27 @@
         <v>12</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
@@ -5293,27 +5230,27 @@
         <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
@@ -5322,28 +5259,28 @@
         <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
@@ -5351,27 +5288,27 @@
         <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -5380,27 +5317,27 @@
         <v>12</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
@@ -5409,27 +5346,27 @@
         <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
@@ -5438,27 +5375,27 @@
         <v>12</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
@@ -5467,27 +5404,27 @@
         <v>12</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -5496,27 +5433,27 @@
         <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
@@ -5525,27 +5462,27 @@
         <v>12</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
@@ -5554,24 +5491,24 @@
         <v>12</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>57</v>
@@ -5595,15 +5532,15 @@
         <v>16</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
@@ -5612,27 +5549,27 @@
         <v>12</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -5641,27 +5578,27 @@
         <v>12</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
@@ -5670,27 +5607,27 @@
         <v>12</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -5699,27 +5636,27 @@
         <v>12</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -5728,27 +5665,27 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
@@ -5757,27 +5694,27 @@
         <v>12</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
@@ -5786,27 +5723,27 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
@@ -5815,27 +5752,27 @@
         <v>12</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
@@ -5844,27 +5781,27 @@
         <v>12</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -5873,27 +5810,27 @@
         <v>12</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
@@ -5902,27 +5839,27 @@
         <v>12</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
@@ -5931,27 +5868,27 @@
         <v>12</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
@@ -5960,28 +5897,28 @@
         <v>12</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
@@ -5989,27 +5926,27 @@
         <v>12</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -6018,27 +5955,27 @@
         <v>12</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -6047,27 +5984,27 @@
         <v>12</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -6076,27 +6013,27 @@
         <v>12</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -6105,27 +6042,27 @@
         <v>12</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -6134,27 +6071,27 @@
         <v>12</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -6163,27 +6100,27 @@
         <v>12</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
@@ -6192,27 +6129,27 @@
         <v>12</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -6221,27 +6158,27 @@
         <v>12</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -6250,27 +6187,27 @@
         <v>12</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -6279,27 +6216,27 @@
         <v>12</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -6308,27 +6245,27 @@
         <v>12</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -6337,27 +6274,27 @@
         <v>12</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -6366,27 +6303,27 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -6395,27 +6332,27 @@
         <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
@@ -6424,27 +6361,27 @@
         <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -6453,27 +6390,27 @@
         <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -6482,27 +6419,27 @@
         <v>12</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -6511,27 +6448,27 @@
         <v>12</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
@@ -6540,27 +6477,27 @@
         <v>12</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -6569,27 +6506,27 @@
         <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -6598,27 +6535,27 @@
         <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -6627,27 +6564,27 @@
         <v>12</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -6656,27 +6593,27 @@
         <v>12</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -6685,33 +6622,33 @@
         <v>12</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
@@ -6731,16 +6668,16 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>12</v>
@@ -6760,242 +6697,242 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="G179" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="H180" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H181" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="I181" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I182" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
@@ -7004,27 +6941,27 @@
         <v>12</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
@@ -7033,10 +6970,10 @@
         <v>12</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>12</v>
@@ -7045,15 +6982,15 @@
         <v>16</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
@@ -7062,27 +6999,27 @@
         <v>12</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
@@ -7091,27 +7028,27 @@
         <v>12</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
@@ -7123,24 +7060,24 @@
         <v>90</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
@@ -7149,27 +7086,27 @@
         <v>12</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
@@ -7178,56 +7115,56 @@
         <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="193" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
         <v>428</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
@@ -7236,10 +7173,10 @@
         <v>12</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>12</v>
@@ -7248,15 +7185,15 @@
         <v>16</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
@@ -7265,10 +7202,10 @@
         <v>12</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>12</v>
@@ -7277,16 +7214,16 @@
         <v>16</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
@@ -7294,10 +7231,10 @@
         <v>12</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>12</v>
@@ -7306,27 +7243,27 @@
         <v>16</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>12</v>
@@ -7335,44 +7272,44 @@
         <v>16</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
@@ -7381,10 +7318,10 @@
         <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>12</v>
@@ -7393,15 +7330,15 @@
         <v>16</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
@@ -7410,10 +7347,10 @@
         <v>12</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>12</v>
@@ -7422,15 +7359,15 @@
         <v>16</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
@@ -7439,10 +7376,10 @@
         <v>12</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>12</v>
@@ -7451,15 +7388,15 @@
         <v>16</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
@@ -7468,10 +7405,10 @@
         <v>12</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>12</v>
@@ -7480,15 +7417,15 @@
         <v>16</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
@@ -7509,15 +7446,15 @@
         <v>16</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
@@ -7538,15 +7475,15 @@
         <v>16</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
@@ -7567,16 +7504,16 @@
         <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
@@ -7596,47 +7533,47 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>12</v>
@@ -7654,18 +7591,18 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>12</v>
@@ -7683,18 +7620,18 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>12</v>
@@ -7712,18 +7649,18 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>12</v>
@@ -7741,18 +7678,18 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -7770,19 +7707,19 @@
         <v>16</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="D213" s="2" t="s">
         <v>12</v>
       </c>
@@ -7799,18 +7736,18 @@
         <v>16</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>12</v>
@@ -7828,7 +7765,7 @@
         <v>16</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="478">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -241,6 +241,9 @@
     <t xml:space="preserve">Standard 75V 150mA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/ComChip-CDSU4148-SMD_Switching_Diode.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diodes_SMD:SOD-523</t>
   </si>
   <si>
@@ -271,7 +274,7 @@
     <t xml:space="preserve">LTST-C150CKT</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/indicators/Lite_On-LTST_C150GKT-LED_Green_1206.pdf</t>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/indicators/Lite_On-LTST_C150CKT-LED_Red_1206.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">LEDs:LED_1206</t>
@@ -301,6 +304,9 @@
     <t xml:space="preserve">Zener 3.3V 300mW ±6%</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/ON_Semi-MM3ZxxxT1G_Series-Zener_Voltage_Regulators.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diodes_SMD:SOD-323</t>
   </si>
   <si>
@@ -322,6 +328,9 @@
     <t xml:space="preserve">Yellow 5V 80mA 17.8mm</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/indicators/Dialight-557_Series-High_Intensity_LED_Panel_Mount_Indicators.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">D408</t>
   </si>
   <si>
@@ -358,6 +367,9 @@
     <t xml:space="preserve">Right angle, Shielded Cat5e</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Stewart-SS7188S-RJ45_Shielded_Jack.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTC3:RJ45_8_SHIELDED</t>
   </si>
   <si>
@@ -451,6 +463,9 @@
     <t xml:space="preserve">10A 250VAC 32VDC</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/TE-W28_Series-Push_To_Reset_Fuseholder_Type_Thermal_Circuit_Breaker.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">M501</t>
   </si>
   <si>
@@ -688,6 +703,9 @@
     <t xml:space="preserve">1327G6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Anderson-Powerpole_Connectors_PP15_to_PP45.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">P508</t>
   </si>
   <si>
@@ -757,6 +775,9 @@
     <t xml:space="preserve">MOSFET N-CH 50V 220MA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/Fairchild-BSS138-N_Channel_Logic_Level_Enhancement_Mode_FET.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23</t>
   </si>
   <si>
@@ -775,6 +796,9 @@
     <t xml:space="preserve">MOSFET N-CH 30V</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/NXP-PMV45EN-N_Channel_TrenchMOS_logic_level_FET.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q402</t>
   </si>
   <si>
@@ -790,6 +814,9 @@
     <t xml:space="preserve">MOSFET N-CH 250V 230MA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/Diodes_Inc-ZVN4525E6-250V_N_Channel_Enhancement_Mode_MOSFET.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23-6</t>
   </si>
   <si>
@@ -1231,6 +1258,9 @@
     <t xml:space="preserve">REG SW 2.5-12.6V 6A</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/TI-PTN78020-6A_Wide_Input_Adjustable_Switching_Regulator.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTC3:PTN78020W</t>
   </si>
   <si>
@@ -1246,6 +1276,9 @@
     <t xml:space="preserve">LTC2991CMS#PBF</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/LTC299x/Linear-LTC2991-Octal_I2C_Voltage_Current_and_Temp_Monitor.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTC3:MSOP-16</t>
   </si>
   <si>
@@ -1276,6 +1309,9 @@
     <t xml:space="preserve">EEPROM 256KBIT 400KHZ</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/ON_Semi-CAT24C256-256_kb_I2C_CMOS_Serial_EEPROM.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Housings_SSOP:TSSOP-8_4.4x3mm_Pitch0.65mm</t>
   </si>
   <si>
@@ -1291,6 +1327,9 @@
     <t xml:space="preserve">Inverter IC 6 Channel Schmitt</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/logic/TI-CD74HC14-High_Speed_CMOS_Logic_Hex_Inverting_Schmitt_Trigger.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Housings_SSOP:TSSOP-14_4.4x5mm_Pitch0.65mm</t>
   </si>
   <si>
@@ -1306,6 +1345,9 @@
     <t xml:space="preserve">TVS</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/TI-SNx52x0-USB_Port_Transient_Suppressors.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">U403</t>
   </si>
   <si>
@@ -1318,6 +1360,9 @@
     <t xml:space="preserve">2 input AND gate</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/logic/TI-SN74AHC1G08-Single_Two_Input_Positive_AND_Gate.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">TO_SOT_Packages_SMD:SC-70-5</t>
   </si>
   <si>
@@ -1328,6 +1373,9 @@
   </si>
   <si>
     <t xml:space="preserve">Toshiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/Toshiba-TLP3542-Photo_Relay.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Housings_DIP:DIP-6_W7.62mm</t>
@@ -1549,21 +1597,22 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2430,15 +2479,15 @@
         <v>72</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
@@ -2459,15 +2508,15 @@
         <v>72</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
@@ -2488,15 +2537,15 @@
         <v>72</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>70</v>
@@ -2517,15 +2566,15 @@
         <v>72</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
@@ -2546,42 +2595,42 @@
         <v>72</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>70</v>
@@ -2602,45 +2651,45 @@
         <v>72</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2649,103 +2698,103 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
@@ -2753,10 +2802,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -2765,33 +2814,33 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>12</v>
@@ -2806,26 +2855,26 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2840,16 +2889,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>12</v>
@@ -2864,21 +2913,21 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>12</v>
@@ -2893,21 +2942,21 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>12</v>
@@ -2922,22 +2971,22 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E48" s="4" t="s">
         <v>12</v>
       </c>
@@ -2951,207 +3000,207 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="I53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>16</v>
@@ -3159,86 +3208,86 @@
     </row>
     <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -3246,10 +3295,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -3270,15 +3319,15 @@
         <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -3299,15 +3348,15 @@
         <v>16</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -3328,15 +3377,15 @@
         <v>16</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -3357,15 +3406,15 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -3386,120 +3435,120 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>16</v>
@@ -3507,144 +3556,144 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -3652,16 +3701,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>12</v>
@@ -3681,28 +3730,28 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>16</v>
@@ -3710,57 +3759,57 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>16</v>
@@ -3768,57 +3817,57 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>16</v>
@@ -3826,28 +3875,28 @@
     </row>
     <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>16</v>
@@ -3855,28 +3904,28 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>16</v>
@@ -3884,28 +3933,28 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>16</v>
@@ -3913,28 +3962,28 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>16</v>
@@ -3942,28 +3991,28 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>16</v>
@@ -3971,28 +4020,28 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>16</v>
@@ -4000,28 +4049,28 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>16</v>
@@ -4029,28 +4078,28 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="G86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>16</v>
@@ -4058,300 +4107,300 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -4360,27 +4409,27 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -4389,27 +4438,27 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -4418,230 +4467,230 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G100" s="2" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="H104" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G101" s="2" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G102" s="2" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -4650,27 +4699,27 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -4679,27 +4728,27 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -4708,27 +4757,27 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -4737,27 +4786,27 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -4766,201 +4815,201 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D117" s="2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
@@ -4969,27 +5018,27 @@
         <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -4998,27 +5047,27 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
@@ -5027,27 +5076,27 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -5056,27 +5105,27 @@
         <v>12</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
@@ -5085,27 +5134,27 @@
         <v>12</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
@@ -5114,27 +5163,27 @@
         <v>12</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
@@ -5143,27 +5192,27 @@
         <v>12</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
@@ -5172,27 +5221,27 @@
         <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -5201,27 +5250,27 @@
         <v>12</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
@@ -5230,27 +5279,27 @@
         <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
@@ -5259,27 +5308,27 @@
         <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
@@ -5288,27 +5337,27 @@
         <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -5317,27 +5366,27 @@
         <v>12</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
@@ -5346,27 +5395,27 @@
         <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
@@ -5375,27 +5424,27 @@
         <v>12</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
@@ -5404,27 +5453,27 @@
         <v>12</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -5433,27 +5482,27 @@
         <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
@@ -5462,27 +5511,27 @@
         <v>12</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
@@ -5491,24 +5540,24 @@
         <v>12</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>57</v>
@@ -5532,15 +5581,15 @@
         <v>16</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
@@ -5549,27 +5598,27 @@
         <v>12</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -5578,27 +5627,27 @@
         <v>12</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
@@ -5607,27 +5656,27 @@
         <v>12</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -5636,27 +5685,27 @@
         <v>12</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -5665,27 +5714,27 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
@@ -5694,27 +5743,27 @@
         <v>12</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
@@ -5723,27 +5772,27 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
@@ -5752,27 +5801,27 @@
         <v>12</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
@@ -5781,27 +5830,27 @@
         <v>12</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -5810,27 +5859,27 @@
         <v>12</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
@@ -5839,27 +5888,27 @@
         <v>12</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
@@ -5868,27 +5917,27 @@
         <v>12</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
@@ -5897,27 +5946,27 @@
         <v>12</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -5926,27 +5975,27 @@
         <v>12</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
@@ -5955,27 +6004,27 @@
         <v>12</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -5984,27 +6033,27 @@
         <v>12</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -6013,27 +6062,27 @@
         <v>12</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -6042,27 +6091,27 @@
         <v>12</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -6071,27 +6120,27 @@
         <v>12</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -6100,28 +6149,28 @@
         <v>12</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
@@ -6129,56 +6178,56 @@
         <v>12</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -6187,27 +6236,27 @@
         <v>12</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -6216,27 +6265,27 @@
         <v>12</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -6245,27 +6294,27 @@
         <v>12</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -6274,27 +6323,27 @@
         <v>12</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -6303,27 +6352,27 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -6332,27 +6381,27 @@
         <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
@@ -6361,27 +6410,27 @@
         <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -6390,27 +6439,27 @@
         <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -6419,27 +6468,27 @@
         <v>12</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -6448,27 +6497,27 @@
         <v>12</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
@@ -6477,27 +6526,27 @@
         <v>12</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -6506,27 +6555,27 @@
         <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -6535,27 +6584,27 @@
         <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -6564,27 +6613,27 @@
         <v>12</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -6593,27 +6642,27 @@
         <v>12</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -6622,73 +6671,73 @@
         <v>12</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I177" s="2" t="s">
@@ -6697,242 +6746,242 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="C182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="E183" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="G184" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="H185" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
@@ -6941,27 +6990,27 @@
         <v>12</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>16</v>
+        <v>411</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
@@ -6970,85 +7019,85 @@
         <v>12</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H187" s="2" t="s">
-        <v>16</v>
+      <c r="H187" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="G188" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H188" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H188" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I188" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
@@ -7057,27 +7106,27 @@
         <v>12</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>16</v>
+        <v>428</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
@@ -7086,27 +7135,27 @@
         <v>12</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>16</v>
+        <v>434</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
@@ -7115,27 +7164,27 @@
         <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>16</v>
+        <v>440</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
@@ -7144,27 +7193,27 @@
         <v>12</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>16</v>
+        <v>445</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
@@ -7173,27 +7222,27 @@
         <v>12</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H194" s="2" t="s">
-        <v>16</v>
+      <c r="H194" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
@@ -7202,27 +7251,27 @@
         <v>12</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H195" s="2" t="s">
-        <v>16</v>
+      <c r="H195" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
@@ -7231,27 +7280,27 @@
         <v>12</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H196" s="2" t="s">
-        <v>16</v>
+      <c r="H196" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
@@ -7260,27 +7309,27 @@
         <v>12</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H197" s="2" t="s">
-        <v>16</v>
+      <c r="H197" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
@@ -7289,27 +7338,27 @@
         <v>12</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H198" s="2" t="s">
-        <v>16</v>
+      <c r="H198" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
@@ -7318,27 +7367,27 @@
         <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H199" s="2" t="s">
-        <v>16</v>
+      <c r="H199" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
@@ -7347,27 +7396,27 @@
         <v>12</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="2" t="s">
-        <v>16</v>
+      <c r="H200" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
@@ -7376,27 +7425,27 @@
         <v>12</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H201" s="2" t="s">
-        <v>16</v>
+      <c r="H201" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
@@ -7405,27 +7454,27 @@
         <v>12</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H202" s="2" t="s">
-        <v>16</v>
+      <c r="H202" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
@@ -7446,15 +7495,15 @@
         <v>16</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
@@ -7475,15 +7524,15 @@
         <v>16</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
@@ -7504,15 +7553,15 @@
         <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
@@ -7533,15 +7582,15 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
@@ -7562,18 +7611,18 @@
         <v>16</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>12</v>
@@ -7591,18 +7640,18 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>12</v>
@@ -7620,18 +7669,18 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>12</v>
@@ -7649,18 +7698,18 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>12</v>
@@ -7678,18 +7727,18 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -7707,18 +7756,18 @@
         <v>16</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>12</v>
@@ -7736,18 +7785,18 @@
         <v>16</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>12</v>
@@ -7765,7 +7814,7 @@
         <v>16</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="489">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -493,126 +493,138 @@
     <t xml:space="preserve">MicroFit header</t>
   </si>
   <si>
+    <t xml:space="preserve">DC_IN (from  Cell Prot.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43045-0428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 pos vertical header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-43045-Micro_Fit_3_dual_row_vertical_through_hole_header.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x02_Straight_43045-0428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XH header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to front panel; mates to P203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pos vertical header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/JST-XH-2.5mm_pitch_Disconnectable_Crimp_style_connectors.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_JST:JST_EH_B02B-XH-A_02x2.50mm_Straight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XH connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XHP-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pos connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeagleBone_Black_Expansion_Header_P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_2x23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeagleBone_Black_Expansion_Header_P9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to charge controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_JST:JST_XH_B04B-XH-A_02x2.50mm_Straight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P304</t>
+  </si>
+  <si>
     <t xml:space="preserve">to cell protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Molex</t>
+    <t xml:space="preserve">P401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to ignition batt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroFit connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43025-0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-Micro_Fit_3_Family.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to front panel</t>
   </si>
   <si>
     <t xml:space="preserve">43045-0228</t>
   </si>
   <si>
-    <t xml:space="preserve">2 pos vertical header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-43045-Micro_Fit_3_dual_row_vertical_through_hole_header.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x01_Straight_43045-0228</t>
   </si>
   <si>
-    <t xml:space="preserve">P202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XH header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to front panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/JST-XH-2.5mm_pitch_Disconnectable_Crimp_style_connectors.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_JST:JST_EH_B02B-XH-A_02x2.50mm_Straight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XH connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XHP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 pos connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeagleBone_Black_Expansion_Header_P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_2x23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeagleBone_Black_Expansion_Header_P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to charge controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 pos vertical header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_JST:JST_XH_B04B-XH-A_02x2.50mm_Straight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to ignition batt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroFit connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43025-0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-Micro_Fit_3_Family.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P403</t>
-  </si>
-  <si>
     <t xml:space="preserve">P404</t>
   </si>
   <si>
@@ -1106,6 +1118,27 @@
   </si>
   <si>
     <t xml:space="preserve">R422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialight LED may not require ext. R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-070RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R425</t>
   </si>
   <si>
     <t xml:space="preserve">R501</t>
@@ -1566,15 +1599,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1595,27 +1628,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I65536"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D150" activeCellId="0" sqref="D150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1657,13 +1690,13 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1673,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1686,13 +1719,13 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1702,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1715,13 +1748,13 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1731,7 +1764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1744,13 +1777,13 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1760,7 +1793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1773,13 +1806,13 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1789,7 +1822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1818,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1847,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1876,7 +1909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1905,7 +1938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +1967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +1996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +2025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2021,7 +2054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2050,7 +2083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2063,13 +2096,13 @@
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2079,7 +2112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2092,13 +2125,13 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2108,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2121,13 +2154,13 @@
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -2137,7 +2170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2150,13 +2183,13 @@
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2166,7 +2199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2179,13 +2212,13 @@
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2195,7 +2228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2208,13 +2241,13 @@
       <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2224,7 +2257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -2237,13 +2270,13 @@
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2253,7 +2286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2266,13 +2299,13 @@
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -2282,7 +2315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -2295,13 +2328,13 @@
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2311,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -2340,7 +2373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +2431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -2427,7 +2460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -2456,7 +2489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2485,7 +2518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
@@ -2514,7 +2547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -2543,7 +2576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -2572,7 +2605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -2601,7 +2634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -2614,21 +2647,21 @@
       <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2657,7 +2690,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
@@ -2670,21 +2703,21 @@
       <c r="D37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>89</v>
       </c>
@@ -2706,14 +2739,14 @@
       <c r="G38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>96</v>
       </c>
@@ -2735,14 +2768,14 @@
       <c r="G39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
@@ -2764,14 +2797,14 @@
       <c r="G40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
@@ -2793,14 +2826,14 @@
       <c r="G41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>110</v>
       </c>
@@ -2822,14 +2855,14 @@
       <c r="G42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>115</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
@@ -2842,10 +2875,10 @@
       <c r="D43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2858,7 +2891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
@@ -2871,10 +2904,10 @@
       <c r="D44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2887,7 +2920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -2900,10 +2933,10 @@
       <c r="D45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2916,7 +2949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>128</v>
       </c>
@@ -2929,10 +2962,10 @@
       <c r="D46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2945,7 +2978,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
@@ -2958,10 +2991,10 @@
       <c r="D47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2974,7 +3007,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>130</v>
       </c>
@@ -2987,10 +3020,10 @@
       <c r="D48" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3003,7 +3036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
@@ -3032,7 +3065,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
@@ -3061,7 +3094,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
@@ -3090,7 +3123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -3119,7 +3152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
@@ -3148,7 +3181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
@@ -3206,7 +3239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>155</v>
       </c>
@@ -3228,14 +3261,14 @@
       <c r="G56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>163</v>
       </c>
@@ -3248,54 +3281,54 @@
       <c r="D57" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>118</v>
@@ -3306,10 +3339,10 @@
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="E59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -3318,13 +3351,13 @@
       <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>118</v>
@@ -3335,10 +3368,10 @@
       <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -3347,13 +3380,13 @@
       <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>118</v>
@@ -3364,10 +3397,10 @@
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="E61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -3376,16 +3409,16 @@
       <c r="H61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -3393,10 +3426,10 @@
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="E62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -3406,41 +3439,41 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>164</v>
@@ -3449,25 +3482,25 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="G64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>188</v>
       </c>
@@ -3478,27 +3511,27 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="G65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>156</v>
@@ -3507,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>158</v>
@@ -3518,45 +3551,45 @@
       <c r="G66" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>156</v>
@@ -3565,27 +3598,27 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>156</v>
@@ -3594,27 +3627,27 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>164</v>
@@ -3623,27 +3656,27 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="G70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>156</v>
@@ -3652,114 +3685,114 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>156</v>
@@ -3768,56 +3801,56 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>195</v>
+        <v>223</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>156</v>
@@ -3826,59 +3859,59 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>195</v>
+        <v>223</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -3887,27 +3920,27 @@
         <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -3916,27 +3949,27 @@
         <v>143</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -3945,27 +3978,27 @@
         <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -3974,27 +4007,27 @@
         <v>143</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -4003,27 +4036,27 @@
         <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -4032,27 +4065,27 @@
         <v>143</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -4061,27 +4094,27 @@
         <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -4090,24 +4123,24 @@
         <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>156</v>
@@ -4116,59 +4149,59 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>195</v>
+        <v>223</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -4177,27 +4210,27 @@
         <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -4206,27 +4239,27 @@
         <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -4235,27 +4268,27 @@
         <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -4264,27 +4297,27 @@
         <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -4293,27 +4326,27 @@
         <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -4322,27 +4355,27 @@
         <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -4351,27 +4384,27 @@
         <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -4380,27 +4413,27 @@
         <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -4409,56 +4442,56 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -4467,578 +4500,578 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="I103" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="I104" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="2" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="2" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="2" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="2" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="H114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="D116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="H118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -5047,27 +5080,27 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
@@ -5076,27 +5109,27 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
@@ -5104,144 +5137,144 @@
       <c r="D121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>289</v>
+      <c r="E121" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B123" s="2" t="s">
+      <c r="G124" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>289</v>
+      <c r="G125" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -5249,28 +5282,28 @@
       <c r="D126" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>289</v>
+      <c r="E126" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
@@ -5278,28 +5311,28 @@
       <c r="D127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>289</v>
+      <c r="E127" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
@@ -5307,57 +5340,57 @@
       <c r="D128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>289</v>
+      <c r="E128" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>289</v>
+      <c r="E129" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -5365,28 +5398,28 @@
       <c r="D130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>289</v>
+      <c r="E130" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
@@ -5394,28 +5427,28 @@
       <c r="D131" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>289</v>
+      <c r="E131" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
@@ -5423,28 +5456,28 @@
       <c r="D132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>289</v>
+      <c r="E132" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
@@ -5452,28 +5485,28 @@
       <c r="D133" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>289</v>
+      <c r="E133" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
@@ -5481,28 +5514,28 @@
       <c r="D134" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>289</v>
+      <c r="E134" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
@@ -5510,28 +5543,28 @@
       <c r="D135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>289</v>
+      <c r="E135" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
@@ -5539,25 +5572,25 @@
       <c r="D136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>289</v>
+      <c r="E136" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>57</v>
@@ -5568,28 +5601,28 @@
       <c r="D137" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="E137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
@@ -5598,27 +5631,27 @@
         <v>12</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -5627,27 +5660,27 @@
         <v>12</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
@@ -5656,27 +5689,27 @@
         <v>12</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -5685,27 +5718,27 @@
         <v>12</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -5714,230 +5747,230 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="G149" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
@@ -5945,112 +5978,112 @@
       <c r="D150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>289</v>
+      <c r="E150" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>289</v>
+      <c r="E151" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>367</v>
@@ -6059,30 +6092,30 @@
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F154" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -6091,27 +6124,27 @@
         <v>12</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -6120,27 +6153,27 @@
         <v>12</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -6149,27 +6182,27 @@
         <v>12</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
@@ -6178,27 +6211,27 @@
         <v>12</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -6207,85 +6240,85 @@
         <v>12</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="G161" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -6294,27 +6327,27 @@
         <v>12</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -6323,28 +6356,28 @@
         <v>12</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
@@ -6352,27 +6385,27 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -6381,27 +6414,27 @@
         <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
@@ -6410,27 +6443,27 @@
         <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -6439,27 +6472,27 @@
         <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -6468,27 +6501,27 @@
         <v>12</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -6497,27 +6530,27 @@
         <v>12</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
@@ -6526,27 +6559,27 @@
         <v>12</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -6555,27 +6588,27 @@
         <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -6584,27 +6617,27 @@
         <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -6613,27 +6646,27 @@
         <v>12</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -6642,27 +6675,27 @@
         <v>12</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -6671,428 +6704,428 @@
         <v>12</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="E180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="I186" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G186" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="F187" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="3" t="s">
+      <c r="B188" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F188" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="H189" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+      <c r="I189" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>425</v>
       </c>
@@ -7106,22 +7139,22 @@
         <v>12</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>91</v>
+        <v>427</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="2" t="s">
         <v>429</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>431</v>
       </c>
@@ -7135,7 +7168,7 @@
         <v>12</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>433</v>
@@ -7143,103 +7176,103 @@
       <c r="G191" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="H191" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I191" s="2" t="s">
+      <c r="B192" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F192" s="2" t="s">
+      <c r="G193" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="H193" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="I193" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I192" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+    </row>
+    <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F193" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="G194" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H193" s="3" t="s">
+      <c r="H194" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="I194" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+    <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>449</v>
@@ -7251,28 +7284,28 @@
         <v>12</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H195" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="H195" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="I195" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
@@ -7280,27 +7313,27 @@
         <v>12</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
@@ -7309,27 +7342,27 @@
         <v>12</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H197" s="3" t="s">
-        <v>451</v>
+      <c r="H197" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
@@ -7338,27 +7371,27 @@
         <v>12</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H198" s="3" t="s">
-        <v>451</v>
+      <c r="H198" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
@@ -7367,27 +7400,27 @@
         <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H199" s="3" t="s">
-        <v>451</v>
+      <c r="H199" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
@@ -7396,27 +7429,27 @@
         <v>12</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>451</v>
+      <c r="H200" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
@@ -7425,28 +7458,28 @@
         <v>12</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>451</v>
+      <c r="H201" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
@@ -7454,114 +7487,114 @@
         <v>12</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H202" s="3" t="s">
-        <v>451</v>
+      <c r="H202" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="F203" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
@@ -7582,15 +7615,15 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
@@ -7611,18 +7644,18 @@
         <v>16</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>469</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>12</v>
@@ -7640,18 +7673,18 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>12</v>
@@ -7669,18 +7702,18 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>12</v>
@@ -7698,18 +7731,18 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="C211" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>12</v>
@@ -7727,47 +7760,47 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>12</v>
@@ -7785,18 +7818,18 @@
         <v>16</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>12</v>
@@ -7814,13 +7847,96 @@
         <v>16</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H215" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ltc3/bom/ltc/LTC3.xlsx
+++ b/ltc3/bom/ltc/LTC3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="487">
   <si>
     <t xml:space="preserve">Refs</t>
   </si>
@@ -532,7 +532,7 @@
     <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/JST-XH-2.5mm_pitch_Disconnectable_Crimp_style_connectors.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Connectors_JST:JST_EH_B02B-XH-A_02x2.50mm_Straight</t>
+    <t xml:space="preserve">Connectors_JST:JST_XH_B02B-XH-A_02x2.50mm_Straight</t>
   </si>
   <si>
     <t xml:space="preserve">P203</t>
@@ -583,7 +583,7 @@
     <t xml:space="preserve">B4B-XH-A(LF)(SN)</t>
   </si>
   <si>
-    <t xml:space="preserve">Connectors_JST:JST_XH_B04B-XH-A_02x2.50mm_Straight</t>
+    <t xml:space="preserve">Connectors_JST:JST_XH_B04B-XH-A_04x2.50mm_Straight</t>
   </si>
   <si>
     <t xml:space="preserve">P304</t>
@@ -601,10 +601,22 @@
     <t xml:space="preserve">P402</t>
   </si>
   <si>
+    <t xml:space="preserve">to front panel; mates to P403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43045-0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x01_Straight_43045-0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P403</t>
+  </si>
+  <si>
     <t xml:space="preserve">MicroFit connector</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P403</t>
+    <t xml:space="preserve">OFF-BOARD; mates to P402</t>
   </si>
   <si>
     <t xml:space="preserve">43025-0200</t>
@@ -613,21 +625,42 @@
     <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Molex-Micro_Fit_3_Family.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">P403</t>
+    <t xml:space="preserve">P404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to front panel; mates to P405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to front panel; mates to P407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XHP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 pos connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P408</t>
   </si>
   <si>
     <t xml:space="preserve">to front panel</t>
   </si>
   <si>
-    <t xml:space="preserve">43045-0228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x01_Straight_43045-0228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P404</t>
-  </si>
-  <si>
     <t xml:space="preserve">43045-1028</t>
   </si>
   <si>
@@ -637,19 +670,7 @@
     <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x05_Straight_43045-1028</t>
   </si>
   <si>
-    <t xml:space="preserve">P405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P408</t>
+    <t xml:space="preserve">P409</t>
   </si>
   <si>
     <t xml:space="preserve">CONN_01x02</t>
@@ -658,72 +679,72 @@
     <t xml:space="preserve">OFF-BOARD; to away box</t>
   </si>
   <si>
-    <t xml:space="preserve">P409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XHP-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 pos connector</t>
+    <t xml:space="preserve">P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to front panel; mates to P503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43045-0828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 pos vertical header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x04_Straight_43045-0828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to front panel; mates to P502</t>
   </si>
   <si>
     <t xml:space="preserve">P503</t>
   </si>
   <si>
-    <t xml:space="preserve">43045-0828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 pos vertical header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors_Molex:Molex_Microfit3_Header_02x04_Straight_43045-0828</t>
+    <t xml:space="preserve">OFF-BOARD; mates to P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43025-0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 pos connector</t>
   </si>
   <si>
     <t xml:space="preserve">P504</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43025-0800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 pos connector</t>
+    <t xml:space="preserve">OFF-BOARD; mates to P502</t>
   </si>
   <si>
     <t xml:space="preserve">P505</t>
   </si>
   <si>
+    <t xml:space="preserve">PowerPole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1327G6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Anderson-Powerpole_Connectors_PP15_to_PP45.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">P506</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P505</t>
+    <t xml:space="preserve">1327</t>
   </si>
   <si>
     <t xml:space="preserve">P507</t>
   </si>
   <si>
-    <t xml:space="preserve">PowerPole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1327G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/connectors/Anderson-Powerpole_Connectors_PP15_to_PP45.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">P508</t>
   </si>
   <si>
-    <t xml:space="preserve">1327</t>
-  </si>
-  <si>
     <t xml:space="preserve">P509</t>
   </si>
   <si>
@@ -736,10 +757,19 @@
     <t xml:space="preserve">P512</t>
   </si>
   <si>
-    <t xml:space="preserve">P513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P514</t>
+    <t xml:space="preserve">P601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF-BOARD; mates to P605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P604</t>
   </si>
   <si>
     <t xml:space="preserve">P605</t>
@@ -748,9 +778,6 @@
     <t xml:space="preserve">P606</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF-BOARD; mates to P605</t>
-  </si>
-  <si>
     <t xml:space="preserve">P607</t>
   </si>
   <si>
@@ -763,18 +790,6 @@
     <t xml:space="preserve">P610</t>
   </si>
   <si>
-    <t xml:space="preserve">P611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P614</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q202</t>
   </si>
   <si>
@@ -805,6 +820,9 @@
     <t xml:space="preserve">NXP</t>
   </si>
   <si>
+    <t xml:space="preserve">PMV45EN2R</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOSFET N-CH 30V</t>
   </si>
   <si>
@@ -814,571 +832,547 @@
     <t xml:space="preserve">Q402</t>
   </si>
   <si>
-    <t xml:space="preserve">ZVN4525E6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZVN4525E6TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSFET N-CH 250V 230MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/Diodes_Inc-ZVN4525E6-250V_N_Channel_Enhancement_Mode_MOSFET.pdf</t>
+    <t xml:space="preserve">Q403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1W 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE2512FKE7W0R06L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1% 2W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistors_SMD:R_2512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1% 50mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0721KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1% 1/8W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistors_SMD:R_0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07383KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasheet-spec’d 2.91k is unavailable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJ-6ENF2871V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1% 1/8W 100ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0720KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0736KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-075K6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0762KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07120RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07100RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07510KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07240RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-071K5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialight LED may not require ext. R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-070RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07270RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0751KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOMENTARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVQ-Q2K03W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactile SPST-NO Top Actuated SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/Panasonic-EVQQ2-6mm_Square_Thin_SMD_Touch_Switches.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons_Switches_SMD:SW_SPST_EVQQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTN78020W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTN78020WAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG SW 2.5-12.6V 6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/TI-PTN78020-6A_Wide_Input_Adjustable_Switching_Regulator.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3:PTN78020W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC2991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC2991CMS#PBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/LTC299x/Linear-LTC2991-Octal_I2C_Voltage_Current_and_Temp_Monitor.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3:MSOP-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTN78020H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTN78020HAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG SW 11.85-22V 6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT24C256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT24C256YI-GT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEPROM 256KBIT 400KHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/ON_Semi-CAT24C256-256_kb_I2C_CMOS_Serial_EEPROM.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_SSOP:TSSOP-8_4.4x3mm_Pitch0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD74HC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD74HC14PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverter IC 6 Channel Schmitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/logic/TI-CD74HC14-High_Speed_CMOS_Logic_Hex_Inverting_Schmitt_Trigger.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_SSOP:TSSOP-14_4.4x5mm_Pitch0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN65220DBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN65220DBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/TI-SNx52x0-USB_Port_Transient_Suppressors.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMV45EN2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1W 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE2512FKE7W0R06L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1% 2W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistors_SMD:R_2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1% 50mW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0721KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1% 1/8W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistors_SMD:R_0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">383k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07383KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasheet-spec’d 2.91k is unavailable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panasonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-6ENF2871V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1% 1/8W 100ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0720KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0736KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-075K6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0762KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07100KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07120RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07100RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07510KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07240RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-071K5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0730KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-075K1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dialight LED may not require ext. R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805JR-070RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07270RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-0751KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOMENTARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVQ-Q2K03W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tactile SPST-NO Top Actuated SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/Panasonic-EVQQ2-6mm_Square_Thin_SMD_Touch_Switches.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons_Switches_SMD:SW_SPST_EVQQ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTN78020W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTN78020WAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REG SW 2.5-12.6V 6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/TI-PTN78020-6A_Wide_Input_Adjustable_Switching_Regulator.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC3:PTN78020W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC2991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC2991CMS#PBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/LTC299x/Linear-LTC2991-Octal_I2C_Voltage_Current_and_Temp_Monitor.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC3:MSOP-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTN78020H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTN78020HAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REG SW 11.85-22V 6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT24C256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT24C256YI-GT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEPROM 256KBIT 400KHZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/ON_Semi-CAT24C256-256_kb_I2C_CMOS_Serial_EEPROM.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housings_SSOP:TSSOP-8_4.4x3mm_Pitch0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD74HC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD74HC14PWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverter IC 6 Channel Schmitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/logic/TI-CD74HC14-High_Speed_CMOS_Logic_Hex_Inverting_Schmitt_Trigger.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housings_SSOP:TSSOP-14_4.4x5mm_Pitch0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN65220DBV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN65220DBVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/psas/launch-tower/blob/master/ltc3/doc/datasheets/semiconductors/TI-SNx52x0-USB_Port_Transient_Suppressors.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">U403</t>
@@ -1590,7 +1584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1604,10 +1598,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,22 +1620,22 @@
   </sheetPr>
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D150" activeCellId="0" sqref="D150"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I58" activeCellId="0" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3563,36 +3553,36 @@
         <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -3607,13 +3597,13 @@
         <v>199</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3627,80 +3617,80 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3708,7 +3698,7 @@
         <v>207</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -3717,16 +3707,16 @@
         <v>208</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>16</v>
@@ -3734,57 +3724,57 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>16</v>
@@ -3792,7 +3782,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>156</v>
@@ -3801,106 +3791,106 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>16</v>
@@ -3908,10 +3898,10 @@
     </row>
     <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -3920,16 +3910,16 @@
         <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>16</v>
@@ -3937,10 +3927,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -3949,16 +3939,16 @@
         <v>143</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>16</v>
@@ -3966,10 +3956,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -3978,16 +3968,16 @@
         <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>16</v>
@@ -3995,10 +3985,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -4007,16 +3997,16 @@
         <v>143</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>16</v>
@@ -4024,10 +4014,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -4036,16 +4026,16 @@
         <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>16</v>
@@ -4053,10 +4043,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -4065,16 +4055,16 @@
         <v>143</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>16</v>
@@ -4082,10 +4072,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -4094,16 +4084,16 @@
         <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>16</v>
@@ -4111,10 +4101,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -4123,16 +4113,16 @@
         <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>16</v>
@@ -4140,7 +4130,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>156</v>
@@ -4149,48 +4139,48 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>16</v>
@@ -4198,10 +4188,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -4210,16 +4200,16 @@
         <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>16</v>
@@ -4227,10 +4217,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -4239,16 +4229,16 @@
         <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>16</v>
@@ -4256,10 +4246,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -4268,16 +4258,16 @@
         <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>16</v>
@@ -4285,10 +4275,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -4297,16 +4287,16 @@
         <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>16</v>
@@ -4314,10 +4304,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -4326,16 +4316,16 @@
         <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>16</v>
@@ -4343,10 +4333,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -4355,16 +4345,16 @@
         <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>16</v>
@@ -4372,10 +4362,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -4384,16 +4374,16 @@
         <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>16</v>
@@ -4401,10 +4391,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -4413,16 +4403,16 @@
         <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>16</v>
@@ -4430,10 +4420,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -4442,28 +4432,28 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
@@ -4471,27 +4461,27 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -4500,24 +4490,24 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>264</v>
@@ -4541,7 +4531,7 @@
         <v>268</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4570,7 +4560,7 @@
         <v>268</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4599,7 +4589,7 @@
         <v>268</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4607,7 +4597,7 @@
         <v>272</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -4616,27 +4606,27 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G103" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -4645,27 +4635,27 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G104" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -4674,27 +4664,27 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -4703,27 +4693,27 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -4732,27 +4722,27 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G107" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -4761,27 +4751,27 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -4790,27 +4780,27 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -4819,27 +4809,27 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G110" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -4848,749 +4838,749 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="G115" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="H117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="G118" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="G119" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G120" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G121" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="G122" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="G123" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G125" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G126" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G127" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G128" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G129" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="G130" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G131" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="G132" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="G133" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G134" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="G135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="G136" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>57</v>
@@ -5614,218 +5604,218 @@
         <v>16</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G138" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G139" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="G140" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="G141" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="G142" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G143" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="G144" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
@@ -5834,27 +5824,27 @@
         <v>12</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="G145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
@@ -5863,27 +5853,27 @@
         <v>12</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="G146" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -5892,27 +5882,27 @@
         <v>12</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="G147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
@@ -5921,85 +5911,85 @@
         <v>12</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="G149" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G150" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -6008,114 +5998,114 @@
         <v>12</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G151" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>294</v>
+      <c r="H152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>294</v>
+      <c r="H153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>294</v>
+      <c r="H154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -6124,27 +6114,27 @@
         <v>12</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G155" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -6153,27 +6143,27 @@
         <v>12</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G156" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
@@ -6182,27 +6172,27 @@
         <v>12</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G157" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
@@ -6211,85 +6201,85 @@
         <v>12</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G159" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G160" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
@@ -6298,27 +6288,27 @@
         <v>12</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G161" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -6327,27 +6317,27 @@
         <v>12</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G162" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
@@ -6356,27 +6346,27 @@
         <v>12</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G163" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -6385,85 +6375,85 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G164" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G165" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G166" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -6472,27 +6462,27 @@
         <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -6501,85 +6491,85 @@
         <v>12</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G168" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G169" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G170" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -6588,27 +6578,27 @@
         <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G171" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -6617,201 +6607,201 @@
         <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G172" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G173" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G174" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="G175" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F176" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="G176" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="G177" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="G178" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
@@ -6837,10 +6827,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
@@ -6866,329 +6856,329 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="G181" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="H181" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F181" s="2" t="s">
+      <c r="I181" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="H182" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F182" s="2" t="s">
+      <c r="I182" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="H183" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F183" s="2" t="s">
+      <c r="I183" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="H184" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F184" s="2" t="s">
+      <c r="I184" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F185" s="2" t="s">
+      <c r="I185" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F186" s="2" t="s">
+      <c r="I186" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="H187" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F187" s="2" t="s">
+      <c r="I187" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="H188" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F188" s="2" t="s">
+      <c r="I188" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="H189" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="I189" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="G190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" s="2" t="s">
+      <c r="I190" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="I191" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
@@ -7197,27 +7187,27 @@
         <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H192" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="I192" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
@@ -7229,401 +7219,401 @@
         <v>91</v>
       </c>
       <c r="F193" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="H194" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F194" s="2" t="s">
+      <c r="I194" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="H195" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F195" s="2" t="s">
+      <c r="I195" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="G196" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F196" s="2" t="s">
+      <c r="H196" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="I196" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="I197" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="2" t="s">
+      <c r="I198" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" s="2" t="s">
+      <c r="I199" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="2" t="s">
+      <c r="I200" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="2" t="s">
+      <c r="I201" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="2" t="s">
+      <c r="I202" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="2" t="s">
+      <c r="I203" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="2" t="s">
+      <c r="I204" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="2" t="s">
+      <c r="I205" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
@@ -7644,15 +7634,15 @@
         <v>16</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
@@ -7673,15 +7663,15 @@
         <v>16</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
@@ -7702,15 +7692,15 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
@@ -7731,18 +7721,18 @@
         <v>16</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>12</v>
@@ -7760,18 +7750,18 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -7789,18 +7779,18 @@
         <v>16</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>12</v>
@@ -7818,18 +7808,18 @@
         <v>16</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>12</v>
@@ -7847,18 +7837,18 @@
         <v>16</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>12</v>
@@ -7876,18 +7866,18 @@
         <v>16</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>12</v>
@@ -7905,18 +7895,18 @@
         <v>16</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>12</v>
@@ -7934,7 +7924,7 @@
         <v>16</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
